--- a/IPL/Mumbai Indians/Saurabh Tiwary .xlsx
+++ b/IPL/Mumbai Indians/Saurabh Tiwary .xlsx
@@ -468,13 +468,13 @@
         <v>Mumbai Indians</v>
       </c>
       <c r="C5" t="str">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D5" t="str">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="str">
         <v>1</v>
@@ -488,13 +488,13 @@
         <v>Mumbai Indians</v>
       </c>
       <c r="C6" t="str">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D6" t="str">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E6" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
         <v>1</v>

--- a/IPL/Mumbai Indians/Saurabh Tiwary .xlsx
+++ b/IPL/Mumbai Indians/Saurabh Tiwary .xlsx
@@ -428,16 +428,16 @@
         <v>Mumbai Indians</v>
       </c>
       <c r="C3" t="str">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D3" t="str">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -488,16 +488,16 @@
         <v>Mumbai Indians</v>
       </c>
       <c r="C6" t="str">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D6" t="str">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
